--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl25-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.934604333333334</v>
+        <v>2.758234</v>
       </c>
       <c r="H2">
-        <v>17.803813</v>
+        <v>8.274702</v>
       </c>
       <c r="I2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="J2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5010136666666667</v>
+        <v>1.238415</v>
       </c>
       <c r="N2">
-        <v>1.503041</v>
+        <v>3.715245</v>
       </c>
       <c r="O2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P2">
-        <v>0.237333180484197</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q2">
-        <v>2.973317877259222</v>
+        <v>3.41583835911</v>
       </c>
       <c r="R2">
-        <v>26.759860895333</v>
+        <v>30.74254523199</v>
       </c>
       <c r="S2">
-        <v>0.07314317221895471</v>
+        <v>0.08376196737459105</v>
       </c>
       <c r="T2">
-        <v>0.07314317221895469</v>
+        <v>0.08376196737459103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.934604333333334</v>
+        <v>2.758234</v>
       </c>
       <c r="H3">
-        <v>17.803813</v>
+        <v>8.274702</v>
       </c>
       <c r="I3">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="J3">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.238415</v>
+        <v>1.602242</v>
       </c>
       <c r="N3">
-        <v>3.715245</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O3">
-        <v>0.5866446172313401</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P3">
-        <v>0.58664461723134</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q3">
-        <v>7.349503025465</v>
+        <v>4.419358360627999</v>
       </c>
       <c r="R3">
-        <v>66.14552722918501</v>
+        <v>39.77422524565199</v>
       </c>
       <c r="S3">
-        <v>0.1807966681352075</v>
+        <v>0.1083699261799958</v>
       </c>
       <c r="T3">
-        <v>0.1807966681352075</v>
+        <v>0.1083699261799958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.934604333333334</v>
+        <v>7.720664</v>
       </c>
       <c r="H4">
-        <v>17.803813</v>
+        <v>23.161992</v>
       </c>
       <c r="I4">
-        <v>0.3081877218757661</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="J4">
-        <v>0.3081877218757661</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.3715853333333333</v>
+        <v>1.238415</v>
       </c>
       <c r="N4">
-        <v>1.114756</v>
+        <v>3.715245</v>
       </c>
       <c r="O4">
-        <v>0.1760222022844629</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P4">
-        <v>0.1760222022844629</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q4">
-        <v>2.205211929403111</v>
+        <v>9.561386107560001</v>
       </c>
       <c r="R4">
-        <v>19.846907364628</v>
+        <v>86.05247496804002</v>
       </c>
       <c r="S4">
-        <v>0.0542478815216039</v>
+        <v>0.2344608927589826</v>
       </c>
       <c r="T4">
-        <v>0.0542478815216039</v>
+        <v>0.2344608927589826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.720663999999999</v>
+        <v>7.720664</v>
       </c>
       <c r="H5">
         <v>23.161992</v>
       </c>
       <c r="I5">
-        <v>0.4009389195777736</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="J5">
-        <v>0.4009389195777735</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5010136666666667</v>
+        <v>1.602242</v>
       </c>
       <c r="N5">
-        <v>1.503041</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O5">
-        <v>0.237333180484197</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P5">
-        <v>0.237333180484197</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q5">
-        <v>3.868158179741333</v>
+        <v>12.370372128688</v>
       </c>
       <c r="R5">
-        <v>34.813423617672</v>
+        <v>111.333349158192</v>
       </c>
       <c r="S5">
-        <v>0.09515610896329069</v>
+        <v>0.3033418439989323</v>
       </c>
       <c r="T5">
-        <v>0.09515610896329066</v>
+        <v>0.3033418439989323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.720663999999999</v>
+        <v>3.877042333333333</v>
       </c>
       <c r="H6">
-        <v>23.161992</v>
+        <v>11.631127</v>
       </c>
       <c r="I6">
-        <v>0.4009389195777736</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="J6">
-        <v>0.4009389195777735</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +806,27 @@
         <v>3.715245</v>
       </c>
       <c r="O6">
-        <v>0.5866446172313401</v>
+        <v>0.4359607654144799</v>
       </c>
       <c r="P6">
-        <v>0.58664461723134</v>
+        <v>0.4359607654144798</v>
       </c>
       <c r="Q6">
-        <v>9.561386107559999</v>
+        <v>4.801387381235</v>
       </c>
       <c r="R6">
-        <v>86.05247496804</v>
+        <v>43.212486431115</v>
       </c>
       <c r="S6">
-        <v>0.23520865900885</v>
+        <v>0.1177379052809062</v>
       </c>
       <c r="T6">
-        <v>0.2352086590088499</v>
+        <v>0.1177379052809062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.720663999999999</v>
+        <v>3.877042333333333</v>
       </c>
       <c r="H7">
-        <v>23.161992</v>
+        <v>11.631127</v>
       </c>
       <c r="I7">
-        <v>0.4009389195777736</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="J7">
-        <v>0.4009389195777735</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3715853333333333</v>
+        <v>1.602242</v>
       </c>
       <c r="N7">
-        <v>1.114756</v>
+        <v>4.806725999999999</v>
       </c>
       <c r="O7">
-        <v>0.1760222022844629</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="P7">
-        <v>0.1760222022844629</v>
+        <v>0.5640392345855201</v>
       </c>
       <c r="Q7">
-        <v>2.868885505994666</v>
+        <v>6.211960062244666</v>
       </c>
       <c r="R7">
-        <v>25.819969553952</v>
+        <v>55.90764056020199</v>
       </c>
       <c r="S7">
-        <v>0.07057415160563288</v>
+        <v>0.152327464406592</v>
       </c>
       <c r="T7">
-        <v>0.07057415160563286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.601191</v>
-      </c>
-      <c r="H8">
-        <v>16.803573</v>
-      </c>
-      <c r="I8">
-        <v>0.2908733585464604</v>
-      </c>
-      <c r="J8">
-        <v>0.2908733585464603</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.5010136666666667</v>
-      </c>
-      <c r="N8">
-        <v>1.503041</v>
-      </c>
-      <c r="O8">
-        <v>0.237333180484197</v>
-      </c>
-      <c r="P8">
-        <v>0.237333180484197</v>
-      </c>
-      <c r="Q8">
-        <v>2.806273240610333</v>
-      </c>
-      <c r="R8">
-        <v>25.256459165493</v>
-      </c>
-      <c r="S8">
-        <v>0.06903389930195164</v>
-      </c>
-      <c r="T8">
-        <v>0.06903389930195161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.601191</v>
-      </c>
-      <c r="H9">
-        <v>16.803573</v>
-      </c>
-      <c r="I9">
-        <v>0.2908733585464604</v>
-      </c>
-      <c r="J9">
-        <v>0.2908733585464603</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>1.238415</v>
-      </c>
-      <c r="N9">
-        <v>3.715245</v>
-      </c>
-      <c r="O9">
-        <v>0.5866446172313401</v>
-      </c>
-      <c r="P9">
-        <v>0.58664461723134</v>
-      </c>
-      <c r="Q9">
-        <v>6.936598952265</v>
-      </c>
-      <c r="R9">
-        <v>62.429390570385</v>
-      </c>
-      <c r="S9">
-        <v>0.1706392900872826</v>
-      </c>
-      <c r="T9">
-        <v>0.1706392900872825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.601191</v>
-      </c>
-      <c r="H10">
-        <v>16.803573</v>
-      </c>
-      <c r="I10">
-        <v>0.2908733585464604</v>
-      </c>
-      <c r="J10">
-        <v>0.2908733585464603</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.3715853333333333</v>
-      </c>
-      <c r="N10">
-        <v>1.114756</v>
-      </c>
-      <c r="O10">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="P10">
-        <v>0.1760222022844629</v>
-      </c>
-      <c r="Q10">
-        <v>2.081320424798666</v>
-      </c>
-      <c r="R10">
-        <v>18.731883823188</v>
-      </c>
-      <c r="S10">
-        <v>0.05120016915722617</v>
-      </c>
-      <c r="T10">
-        <v>0.05120016915722616</v>
+        <v>0.152327464406592</v>
       </c>
     </row>
   </sheetData>
